--- a/res/RES_(0_use30).xlsx
+++ b/res/RES_(0_use30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,1430 +819,2620 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1319032333515305</v>
+        <v>0.7726443272309546</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1824881583452225</v>
+        <v>0.2166723310947418</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09753691405057907</v>
+        <v>0.1567179262638092</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1721222102642059</v>
+        <v>0.1851083189249039</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09173475950956345</v>
+        <v>0.1477051228284836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2052988299617056</v>
+        <v>0.3970392142147994</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1825584769248962</v>
+        <v>0.214927077293396</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09753703325986862</v>
+        <v>0.1562538743019104</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1721222549676895</v>
+        <v>0.185052827000618</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09173475950956345</v>
+        <v>0.1476344019174576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.116021703790735</v>
+        <v>0.3800077660434338</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1825413107872009</v>
+        <v>0.2141986787319183</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09753704816102982</v>
+        <v>0.156061202287674</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1721222549676895</v>
+        <v>0.1851269453763962</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09173475950956345</v>
+        <v>0.1478287130594254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1539699413158272</v>
+        <v>0.2446924591572064</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1823801398277283</v>
+        <v>0.2139201164245605</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09753719717264175</v>
+        <v>0.1569178700447083</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1721221804618835</v>
+        <v>0.185086190700531</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09173475950956345</v>
+        <v>0.1479833126068115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.179561614990234</v>
+        <v>0.2090675419993346</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1824183613061905</v>
+        <v>0.2147044986486435</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0975368395447731</v>
+        <v>0.1558150351047516</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1721221804618835</v>
+        <v>0.1851066499948502</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09173475950956345</v>
+        <v>0.1476965248584747</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1773618768762655</v>
+        <v>0.2247805820650365</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1824176609516144</v>
+        <v>0.2149827927350998</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09753678739070892</v>
+        <v>0.155633807182312</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1721222549676895</v>
+        <v>0.1851076483726501</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09173475950956345</v>
+        <v>0.1475545167922974</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2097531777841068</v>
+        <v>0.2091701200463655</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1824610382318497</v>
+        <v>0.2147024869918823</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0975370779633522</v>
+        <v>0.1562056988477707</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1721222102642059</v>
+        <v>0.1850816160440445</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09173475950956345</v>
+        <v>0.1477556377649307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3900466102144344</v>
+        <v>0.9001447646262717</v>
       </c>
       <c r="B30" t="n">
-        <v>0.250010222196579</v>
+        <v>0.3108026683330536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1049001887440681</v>
+        <v>0.1889670789241791</v>
       </c>
       <c r="D30" t="n">
-        <v>0.172516718506813</v>
+        <v>0.2293941974639893</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09705887734889984</v>
+        <v>0.1874451339244843</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4591676225210916</v>
+        <v>0.8931405465285023</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2458171248435974</v>
+        <v>0.3010294139385223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.104497067630291</v>
+        <v>0.1887996196746826</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1725069135427475</v>
+        <v>0.2265048921108246</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09701503813266754</v>
+        <v>0.1876555532217026</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2008521151783115</v>
+        <v>0.6165846325291872</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2478700131177902</v>
+        <v>0.3189702033996582</v>
       </c>
       <c r="C32" t="n">
-        <v>0.105200782418251</v>
+        <v>0.1988458037376404</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1725100576877594</v>
+        <v>0.2417621314525604</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09713170677423477</v>
+        <v>0.1937169879674911</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1774107442519939</v>
+        <v>0.3070766131497847</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2452911585569382</v>
+        <v>0.2943709492683411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1048825979232788</v>
+        <v>0.196309506893158</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1725050956010818</v>
+        <v>0.2314563691616058</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09705207496881485</v>
+        <v>0.1875467151403427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2182308933918007</v>
+        <v>0.3073335563486498</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2457183599472046</v>
+        <v>0.2802275717258453</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1047750115394592</v>
+        <v>0.1983864307403564</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1725060492753983</v>
+        <v>0.2271159887313843</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09702717512845993</v>
+        <v>0.1947618126869202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2053779027922565</v>
+        <v>0.3611681565210833</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2497283220291138</v>
+        <v>0.2898885011672974</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1044933274388313</v>
+        <v>0.1894688308238983</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1725203394889832</v>
+        <v>0.2295402586460114</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09699074923992157</v>
+        <v>0.1887239813804626</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2038228321297395</v>
+        <v>0.3095630513387033</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2498485743999481</v>
+        <v>0.2967169880867004</v>
       </c>
       <c r="C36" t="n">
-        <v>0.104679174721241</v>
+        <v>0.1837469935417175</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1725212186574936</v>
+        <v>0.2301466315984726</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09701836854219437</v>
+        <v>0.186168372631073</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6967067378227697</v>
+        <v>0.1319032333515305</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2955014705657959</v>
+        <v>0.1824881583452225</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1344182342290878</v>
+        <v>0.09753691405057907</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1971598565578461</v>
+        <v>0.1721222102642059</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1267760694026947</v>
+        <v>0.09173475950956345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6985748147740607</v>
+        <v>0.2052988299617056</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300210177898407</v>
+        <v>0.1825584769248962</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1367115825414658</v>
+        <v>0.09753703325986862</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1971961855888367</v>
+        <v>0.1721222549676895</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1265507489442825</v>
+        <v>0.09173475950956345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3278472470565579</v>
+        <v>0.116021703790735</v>
       </c>
       <c r="B39" t="n">
-        <v>0.287738174200058</v>
+        <v>0.1825413107872009</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1352859884500504</v>
+        <v>0.09753704816102982</v>
       </c>
       <c r="D39" t="n">
-        <v>0.197276696562767</v>
+        <v>0.1721222549676895</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1270704120397568</v>
+        <v>0.09173475950956345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2499298525528168</v>
+        <v>0.1539699413158272</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2829191982746124</v>
+        <v>0.1823801398277283</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1358506977558136</v>
+        <v>0.09753719717264175</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1972794383764267</v>
+        <v>0.1721221804618835</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1269903928041458</v>
+        <v>0.09173475950956345</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2305176640900087</v>
+        <v>0.179561614990234</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2869397401809692</v>
+        <v>0.1824183613061905</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1344636827707291</v>
+        <v>0.0975368395447731</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1972552537918091</v>
+        <v>0.1721221804618835</v>
       </c>
       <c r="E41" t="n">
-        <v>0.126798540353775</v>
+        <v>0.09173475950956345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2815332833590081</v>
+        <v>0.1773618768762655</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2894962430000305</v>
+        <v>0.1824176609516144</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1348211169242859</v>
+        <v>0.09753678739070892</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1971857249736786</v>
+        <v>0.1721222549676895</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1268437802791595</v>
+        <v>0.09173475950956345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4377527371258801</v>
+        <v>0.2097531777841068</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2802595794200897</v>
+        <v>0.1824610382318497</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1364836245775223</v>
+        <v>0.0975370779633522</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1972447633743286</v>
+        <v>0.1721222102642059</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1270474046468735</v>
+        <v>0.09173475950956345</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3832686114463069</v>
+        <v>0.3900466102144344</v>
       </c>
       <c r="B44" t="n">
-        <v>0.447788804769516</v>
+        <v>0.250010222196579</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4571252763271332</v>
+        <v>0.1049001887440681</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4931237697601318</v>
+        <v>0.172516718506813</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4358328580856323</v>
+        <v>0.09705887734889984</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5924380681064212</v>
+        <v>0.4591676225210916</v>
       </c>
       <c r="B45" t="n">
-        <v>0.446319580078125</v>
+        <v>0.2458171248435974</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4651685059070587</v>
+        <v>0.104497067630291</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4931185841560364</v>
+        <v>0.1725069135427475</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4380964934825897</v>
+        <v>0.09701503813266754</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.7078568444383609</v>
+        <v>0.2008521151783115</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4449877440929413</v>
+        <v>0.2478700131177902</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4897813498973846</v>
+        <v>0.105200782418251</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4930624961853027</v>
+        <v>0.1725100576877594</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4444959759712219</v>
+        <v>0.09713170677423477</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7181945282435959</v>
+        <v>0.1774107442519939</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4483701586723328</v>
+        <v>0.2452911585569382</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4686460494995117</v>
+        <v>0.1048825979232788</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4942291975021362</v>
+        <v>0.1725050956010818</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4390760660171509</v>
+        <v>0.09705207496881485</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6567708722092276</v>
+        <v>0.2182308933918007</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4473271369934082</v>
+        <v>0.2457183599472046</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4662940204143524</v>
+        <v>0.1047750115394592</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4931436479091644</v>
+        <v>0.1725060492753983</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4383073151111603</v>
+        <v>0.09702717512845993</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5935471974107603</v>
+        <v>0.2053779027922565</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4433639049530029</v>
+        <v>0.2497283220291138</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4658618271350861</v>
+        <v>0.1044933274388313</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4926791489124298</v>
+        <v>0.1725203394889832</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4385460019111633</v>
+        <v>0.09699074923992157</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7241945043997131</v>
+        <v>0.2038228321297395</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4445855319499969</v>
+        <v>0.2498485743999481</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4695053398609161</v>
+        <v>0.104679174721241</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4925459921360016</v>
+        <v>0.1725212186574936</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4395491778850555</v>
+        <v>0.09701836854219437</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9423478538424118</v>
+        <v>0.6967067378227697</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4685745537281036</v>
+        <v>0.2955014705657959</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6003334522247314</v>
+        <v>0.1344182342290878</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4684422016143799</v>
+        <v>0.1971598565578461</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5281064510345459</v>
+        <v>0.1267760694026947</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9919320548090946</v>
+        <v>0.6985748147740607</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5181897282600403</v>
+        <v>0.300210177898407</v>
       </c>
       <c r="C52" t="n">
-        <v>0.55860835313797</v>
+        <v>0.1367115825414658</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5101041793823242</v>
+        <v>0.1971961855888367</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5027332305908203</v>
+        <v>0.1265507489442825</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6714715504924607</v>
+        <v>0.3278472470565579</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4609283208847046</v>
+        <v>0.287738174200058</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5709707736968994</v>
+        <v>0.1352859884500504</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4671237468719482</v>
+        <v>0.197276696562767</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5109153985977173</v>
+        <v>0.1270704120397568</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.865025193032587</v>
+        <v>0.2499298525528168</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4613202512264252</v>
+        <v>0.2829191982746124</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6129314303398132</v>
+        <v>0.1358506977558136</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4662752449512482</v>
+        <v>0.1972794383764267</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5360702276229858</v>
+        <v>0.1269903928041458</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8273978979207193</v>
+        <v>0.2305176640900087</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4673044979572296</v>
+        <v>0.2869397401809692</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5715038776397705</v>
+        <v>0.1344636827707291</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4667936861515045</v>
+        <v>0.1972552537918091</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5096940398216248</v>
+        <v>0.126798540353775</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6301981528909285</v>
+        <v>0.2815332833590081</v>
       </c>
       <c r="B56" t="n">
-        <v>0.463058203458786</v>
+        <v>0.2894962430000305</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5273327231407166</v>
+        <v>0.1348211169242859</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4683456122875214</v>
+        <v>0.1971857249736786</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4823419451713562</v>
+        <v>0.1268437802791595</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8364599799367698</v>
+        <v>0.4377527371258801</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4586915969848633</v>
+        <v>0.2802595794200897</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5838769674301147</v>
+        <v>0.1364836245775223</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4628832042217255</v>
+        <v>0.1972447633743286</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5201563835144043</v>
+        <v>0.1270474046468735</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.30806527208926</v>
+        <v>0.7605746785399897</v>
       </c>
       <c r="B58" t="n">
-        <v>1.506443738937378</v>
+        <v>0.3344040215015411</v>
       </c>
       <c r="C58" t="n">
-        <v>1.130038022994995</v>
+        <v>0.1577567160129547</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8585189580917358</v>
+        <v>0.1986991167068481</v>
       </c>
       <c r="E58" t="n">
-        <v>1.059985756874084</v>
+        <v>0.1428301185369492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.215158718735424</v>
+        <v>0.732215558978873</v>
       </c>
       <c r="B59" t="n">
-        <v>1.56730329990387</v>
+        <v>0.3344673216342926</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9776930212974548</v>
+        <v>0.1682070940732956</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8671929836273193</v>
+        <v>0.1984861493110657</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9122517704963684</v>
+        <v>0.1425884366035461</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8143400505407529</v>
+        <v>0.3452089490065391</v>
       </c>
       <c r="B60" t="n">
-        <v>1.410269379615784</v>
+        <v>0.2484022527933121</v>
       </c>
       <c r="C60" t="n">
-        <v>0.781614363193512</v>
+        <v>0.1555575579404831</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8396123647689819</v>
+        <v>0.2011635303497314</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7603309750556946</v>
+        <v>0.1462277621030807</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.046037133060284</v>
+        <v>0.2681435086757524</v>
       </c>
       <c r="B61" t="n">
-        <v>1.460091233253479</v>
+        <v>0.2428625226020813</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9713701605796814</v>
+        <v>0.1561321914196014</v>
       </c>
       <c r="D61" t="n">
-        <v>0.845757782459259</v>
+        <v>0.2015960067510605</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9227513074874878</v>
+        <v>0.1458767056465149</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9499383613244807</v>
+        <v>0.2541442297993691</v>
       </c>
       <c r="B62" t="n">
-        <v>1.467540144920349</v>
+        <v>0.2601951956748962</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9193970561027527</v>
+        <v>0.156434565782547</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8537413477897644</v>
+        <v>0.2007487565279007</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8908894062042236</v>
+        <v>0.1462444365024567</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8445035450494108</v>
+        <v>0.3191317092005155</v>
       </c>
       <c r="B63" t="n">
-        <v>1.430585026741028</v>
+        <v>0.2556280791759491</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8695214986801147</v>
+        <v>0.1558304876089096</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8448557257652283</v>
+        <v>0.2014695554971695</v>
       </c>
       <c r="E63" t="n">
-        <v>0.85655277967453</v>
+        <v>0.1446233689785004</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9668002911468047</v>
+        <v>0.6514230647557216</v>
       </c>
       <c r="B64" t="n">
-        <v>1.423592925071716</v>
+        <v>0.3126555383205414</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9204456210136414</v>
+        <v>0.1564227044582367</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8475382924079895</v>
+        <v>0.1991529911756516</v>
       </c>
       <c r="E64" t="n">
-        <v>0.898496687412262</v>
+        <v>0.143554762005806</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1085415719782262</v>
+        <v>0.8800754052987368</v>
       </c>
       <c r="B65" t="n">
-        <v>0.144804984331131</v>
+        <v>0.4073456525802612</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1193804889917374</v>
+        <v>0.1948696672916412</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1305889189243317</v>
+        <v>0.2449282705783844</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1188810244202614</v>
+        <v>0.1868813037872314</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1304345640163974</v>
+        <v>0.7908287878481216</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1450218856334686</v>
+        <v>0.4249924719333649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1244911253452301</v>
+        <v>0.1912781745195389</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1289005279541016</v>
+        <v>0.2440958172082901</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1207504644989967</v>
+        <v>0.1870266795158386</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2439459643317652</v>
+        <v>0.6244972980084196</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1448063552379608</v>
+        <v>0.321948230266571</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1230015829205513</v>
+        <v>0.2167582660913467</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1288222670555115</v>
+        <v>0.2610105574131012</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1200651153922081</v>
+        <v>0.2093605250120163</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1258073547511422</v>
+        <v>0.3704134451910621</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1447398960590363</v>
+        <v>0.3055322468280792</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1194679960608482</v>
+        <v>0.2092110812664032</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1305798590183258</v>
+        <v>0.2548544704914093</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1195909827947617</v>
+        <v>0.1978327035903931</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.150641857999042</v>
+        <v>0.346312401331768</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1449698656797409</v>
+        <v>0.3004739582538605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1272816956043243</v>
+        <v>0.2154493629932404</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1305828988552094</v>
+        <v>0.252043217420578</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1207630261778831</v>
+        <v>0.2040581405162811</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1324228360814952</v>
+        <v>0.3492729542786592</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1445974707603455</v>
+        <v>0.3148759007453918</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1256070286035538</v>
+        <v>0.2169300764799118</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1288979053497314</v>
+        <v>0.2538378536701202</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1210709735751152</v>
+        <v>0.2093249708414078</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1454829891908512</v>
+        <v>0.7201594377428755</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1445900648832321</v>
+        <v>0.3723341226577759</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1193799078464508</v>
+        <v>0.2300535142421722</v>
       </c>
       <c r="D71" t="n">
-        <v>0.130565732717514</v>
+        <v>0.2500795722007751</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1187995970249176</v>
+        <v>0.2076503187417984</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2840468550701529</v>
+        <v>0.3832686114463069</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1882002353668213</v>
+        <v>0.447788804769516</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1631444245576859</v>
+        <v>0.4571252763271332</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1695370078086853</v>
+        <v>0.4931237697601318</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1718865633010864</v>
+        <v>0.4358328580856323</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2697161989795916</v>
+        <v>0.5924380681064212</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1918304115533829</v>
+        <v>0.446319580078125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1646496504545212</v>
+        <v>0.4651685059070587</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1697712689638138</v>
+        <v>0.4931185841560364</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1714402735233307</v>
+        <v>0.4380964934825897</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5043320511798466</v>
+        <v>0.7078568444383609</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1909395605325699</v>
+        <v>0.4449877440929413</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1705227941274643</v>
+        <v>0.4897813498973846</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1756089925765991</v>
+        <v>0.4930624961853027</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1711400151252747</v>
+        <v>0.4444959759712219</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2077795534717792</v>
+        <v>0.7181945282435959</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1908613741397858</v>
+        <v>0.4483701586723328</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1643683165311813</v>
+        <v>0.4686460494995117</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1698126792907715</v>
+        <v>0.4942291975021362</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1699156612157822</v>
+        <v>0.4390760660171509</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1837610112404335</v>
+        <v>0.6567708722092276</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1891385465860367</v>
+        <v>0.4473271369934082</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1641658544540405</v>
+        <v>0.4662940204143524</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1696537435054779</v>
+        <v>0.4931436479091644</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1719063967466354</v>
+        <v>0.4383073151111603</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.204437891123246</v>
+        <v>0.5935471974107603</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1917996108531952</v>
+        <v>0.4433639049530029</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1636597514152527</v>
+        <v>0.4658618271350861</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1698100119829178</v>
+        <v>0.4926791489124298</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1659015566110611</v>
+        <v>0.4385460019111633</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.212832629145408</v>
+        <v>0.7241945043997131</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191610649228096</v>
+        <v>0.4445855319499969</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1642595529556274</v>
+        <v>0.4695053398609161</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1698124408721924</v>
+        <v>0.4925459921360016</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1661545634269714</v>
+        <v>0.4395491778850555</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4324326799109234</v>
+        <v>0.9423478538424118</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2755464017391205</v>
+        <v>0.4685745537281036</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1951046288013458</v>
+        <v>0.6003334522247314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1978682726621628</v>
+        <v>0.4684422016143799</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2008323073387146</v>
+        <v>0.5281064510345459</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.5139065155444208</v>
+        <v>0.9919320548090946</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2924632728099823</v>
+        <v>0.5181897282600403</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1913112848997116</v>
+        <v>0.55860835313797</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1995950937271118</v>
+        <v>0.5101041793823242</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2075356543064117</v>
+        <v>0.5027332305908203</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4877559985569032</v>
+        <v>0.6714715504924607</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2664265930652618</v>
+        <v>0.4609283208847046</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1880913227796555</v>
+        <v>0.5709707736968994</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1949084103107452</v>
+        <v>0.4671237468719482</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2196332216262817</v>
+        <v>0.5109153985977173</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.2002127102379277</v>
+        <v>0.865025193032587</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2671218812465668</v>
+        <v>0.4613202512264252</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1764272749423981</v>
+        <v>0.6129314303398132</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1954814940690994</v>
+        <v>0.4662752449512482</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2090547382831573</v>
+        <v>0.5360702276229858</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1931679712680936</v>
+        <v>0.8273978979207193</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2642982006072998</v>
+        <v>0.4673044979572296</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1789801120758057</v>
+        <v>0.5715038776397705</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1952232122421265</v>
+        <v>0.4667936861515045</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2113560736179352</v>
+        <v>0.5096940398216248</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1994928216017639</v>
+        <v>0.6301981528909285</v>
       </c>
       <c r="B84" t="n">
-        <v>0.262927770614624</v>
+        <v>0.463058203458786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1771810799837112</v>
+        <v>0.5273327231407166</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1950232088565826</v>
+        <v>0.4683456122875214</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2100395411252975</v>
+        <v>0.4823419451713562</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2283442086364201</v>
+        <v>0.8364599799367698</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2662312984466553</v>
+        <v>0.4586915969848633</v>
       </c>
       <c r="C85" t="n">
-        <v>0.170621395111084</v>
+        <v>0.5838769674301147</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1955838203430176</v>
+        <v>0.4628832042217255</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1844598650932312</v>
+        <v>0.5201563835144043</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.0657027749454272</v>
+        <v>1.30806527208926</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05684000998735428</v>
+        <v>1.506443738937378</v>
       </c>
       <c r="C86" t="n">
-        <v>0.05449266359210014</v>
+        <v>1.130038022994995</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05287317931652069</v>
+        <v>0.8585189580917358</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04843004047870636</v>
+        <v>1.059985756874084</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.04762353549818351</v>
+        <v>1.215158718735424</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05804461985826492</v>
+        <v>1.56730329990387</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04579470306634903</v>
+        <v>0.9776930212974548</v>
       </c>
       <c r="D87" t="n">
-        <v>0.05261830613017082</v>
+        <v>0.8671929836273193</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04443251341581345</v>
+        <v>0.9122517704963684</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.08836094404802912</v>
+        <v>0.8143400505407529</v>
       </c>
       <c r="B88" t="n">
-        <v>0.05480251833796501</v>
+        <v>1.410269379615784</v>
       </c>
       <c r="C88" t="n">
-        <v>0.05128268525004387</v>
+        <v>0.781614363193512</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05185358598828316</v>
+        <v>0.8396123647689819</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04582525417208672</v>
+        <v>0.7603309750556946</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.07391360627502933</v>
+        <v>1.046037133060284</v>
       </c>
       <c r="B89" t="n">
-        <v>0.05583010986447334</v>
+        <v>1.460091233253479</v>
       </c>
       <c r="C89" t="n">
-        <v>0.05238071829080582</v>
+        <v>0.9713701605796814</v>
       </c>
       <c r="D89" t="n">
-        <v>0.05237415805459023</v>
+        <v>0.845757782459259</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0466180108487606</v>
+        <v>0.9227513074874878</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.0976865324987414</v>
+        <v>0.9499383613244807</v>
       </c>
       <c r="B90" t="n">
-        <v>0.05736790224909782</v>
+        <v>1.467540144920349</v>
       </c>
       <c r="C90" t="n">
-        <v>0.07017809897661209</v>
+        <v>0.9193970561027527</v>
       </c>
       <c r="D90" t="n">
-        <v>0.05206198990345001</v>
+        <v>0.8537413477897644</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05638518929481506</v>
+        <v>0.8908894062042236</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.05404390073290043</v>
+        <v>0.8445035450494108</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05620111152529716</v>
+        <v>1.430585026741028</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04517120495438576</v>
+        <v>0.8695214986801147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05246204137802124</v>
+        <v>0.8448557257652283</v>
       </c>
       <c r="E91" t="n">
-        <v>0.04366089403629303</v>
+        <v>0.85655277967453</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.05579357521206709</v>
+        <v>0.9668002911468047</v>
       </c>
       <c r="B92" t="n">
-        <v>0.05784465372562408</v>
+        <v>1.423592925071716</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04911773651838303</v>
+        <v>0.9204456210136414</v>
       </c>
       <c r="D92" t="n">
-        <v>0.05239909887313843</v>
+        <v>0.8475382924079895</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04561293497681618</v>
+        <v>0.898496687412262</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1916464309877411</v>
+        <v>1.310254373984348</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2692239582538605</v>
+        <v>1.675167322158813</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1652126610279083</v>
+        <v>1.222767114639282</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1948589831590652</v>
+        <v>1.020402431488037</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1573964804410934</v>
+        <v>1.214740037918091</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.2039050115340161</v>
+        <v>1.151076691060126</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2621790766716003</v>
+        <v>1.681554913520813</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1684463769197464</v>
+        <v>0.9787416458129883</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1940856724977493</v>
+        <v>1.018500447273254</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1585926413536072</v>
+        <v>0.9737828373908997</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3704235474718318</v>
+        <v>0.8212035339334586</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2616563737392426</v>
+        <v>1.644766449928284</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1693130731582642</v>
+        <v>0.7880181074142456</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1965133249759674</v>
+        <v>1.010174036026001</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1612493991851807</v>
+        <v>0.7913017868995667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.2378940936915798</v>
+        <v>1.129536020890352</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2651953399181366</v>
+        <v>1.663710355758667</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1739531010389328</v>
+        <v>1.103224158287048</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1956847608089447</v>
+        <v>1.01427698135376</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1620470583438873</v>
+        <v>1.087958812713623</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.182550021690424</v>
+        <v>0.9526351317941752</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2616392076015472</v>
+        <v>1.663907527923584</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1691316962242126</v>
+        <v>1.00075888633728</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1948806196451187</v>
+        <v>1.016385078430176</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1590864807367325</v>
+        <v>1.024032711982727</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.1773591222739931</v>
+        <v>0.747319297516464</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2726440727710724</v>
+        <v>1.646713376045227</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1620741188526154</v>
+        <v>0.8176276087760925</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1948875039815903</v>
+        <v>1.009739398956299</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1560559123754501</v>
+        <v>0.8295363783836365</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.230644651642709</v>
+        <v>0.9166104828622132</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2712150812149048</v>
+        <v>1.65838634967804</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1850892007350922</v>
+        <v>0.8561083674430847</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1954228729009628</v>
+        <v>1.01229453086853</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1653405576944351</v>
+        <v>0.8295139074325562</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.3062834480463395</v>
+        <v>1.283313693437099</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3090502917766571</v>
+        <v>1.366653680801392</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2115059643983841</v>
+        <v>1.243461132049561</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2108086496591568</v>
+        <v>1.138613939285278</v>
       </c>
       <c r="E100" t="n">
-        <v>0.201390340924263</v>
+        <v>1.236508846282959</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.3156463915814868</v>
+        <v>1.117651711930359</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3038617968559265</v>
+        <v>1.366141319274902</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207235187292099</v>
+        <v>1.063833832740784</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2103354930877686</v>
+        <v>1.135593295097351</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2003899663686752</v>
+        <v>1.085470080375671</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4456405395675107</v>
+        <v>1.002252988607188</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3060201108455658</v>
+        <v>1.362042188644409</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2520615756511688</v>
+        <v>0.9472165703773499</v>
       </c>
       <c r="D102" t="n">
-        <v>0.213049441576004</v>
+        <v>1.135035872459412</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2090572267770767</v>
+        <v>0.9575251936912537</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.2752491204691782</v>
+        <v>1.203717832357188</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2997291684150696</v>
+        <v>1.362759232521057</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2026392817497253</v>
+        <v>1.176200985908508</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2086542844772339</v>
+        <v>1.132771015167236</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1959216594696045</v>
+        <v>1.165288805961609</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.2213195549837254</v>
+        <v>1.067851412066752</v>
       </c>
       <c r="B104" t="n">
-        <v>0.294713020324707</v>
+        <v>1.359185218811035</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2055651992559433</v>
+        <v>1.085611939430237</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2078315615653992</v>
+        <v>1.125728726387024</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1984995156526566</v>
+        <v>1.103675007820129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2132005129518329</v>
+        <v>1.066258950778241</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3026670515537262</v>
+        <v>1.360493898391724</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1940659731626511</v>
+        <v>0.9573362469673157</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2108652293682098</v>
+        <v>1.128441691398621</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1918447017669678</v>
+        <v>0.9662094116210938</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>0.9785831319199292</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.35903012752533</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9111440777778625</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.126192212104797</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9270071387290955</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.1085415719782262</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.144804984331131</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.1193804889917374</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.1305889189243317</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1188810244202614</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.1304345640163974</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1450218856334686</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1244911253452301</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.1289005279541016</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1207504644989967</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.2439459643317652</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.1448063552379608</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1230015829205513</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.1288222670555115</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1200651153922081</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.1258073547511422</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.1447398960590363</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1194679960608482</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1305798590183258</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1195909827947617</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.150641857999042</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1449698656797409</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1272816956043243</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.1305828988552094</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1207630261778831</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.1324228360814952</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1445974707603455</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1256070286035538</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1288979053497314</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.1210709735751152</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.1454829891908512</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1445900648832321</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.1193799078464508</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.130565732717514</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1187995970249176</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.2840468550701529</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1882002353668213</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1631444245576859</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1695370078086853</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.1718865633010864</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.2697161989795916</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1918304115533829</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1646496504545212</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1697712689638138</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1714402735233307</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.5043320511798466</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1909395605325699</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1705227941274643</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.1756089925765991</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1711400151252747</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.2077795534717792</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.1908613741397858</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1643683165311813</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1698126792907715</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.1699156612157822</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.1837610112404335</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1891385465860367</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1641658544540405</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1696537435054779</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1719063967466354</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.204437891123246</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.1917996108531952</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1636597514152527</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1698100119829178</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1659015566110611</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.212832629145408</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.191610649228096</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.1642595529556274</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1698124408721924</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.1661545634269714</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.4324326799109234</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.2755464017391205</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1951046288013458</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.1978682726621628</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.2008323073387146</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.5139065155444208</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.2924632728099823</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.1913112848997116</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1995950937271118</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.2075356543064117</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.4877559985569032</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.2664265930652618</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.1880913227796555</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.1949084103107452</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.2196332216262817</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.2002127102379277</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.2671218812465668</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.1764272749423981</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1954814940690994</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.2090547382831573</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.1931679712680936</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.2642982006072998</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.1789801120758057</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.1952232122421265</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.2113560736179352</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.1994928216017639</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.262927770614624</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.1771810799837112</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1950232088565826</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.2100395411252975</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.2283442086364201</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.2662312984466553</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.170621395111084</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1955838203430176</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.1844598650932312</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.3019884515618526</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.2580033838748932</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.1965470463037491</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1979866921901703</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.1981741338968277</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.4646263090953809</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.2598954737186432</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1972971558570862</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1977720856666565</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.2016883194446564</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.516059982944542</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.2573560476303101</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.1913895606994629</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1976718753576279</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.2033188492059708</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.2313284506556803</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.2557750642299652</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.1900272220373154</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1974884867668152</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1952018886804581</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.2030853549606461</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.2541510760784149</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.1863906681537628</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1972233802080154</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.1939310729503632</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.2071150658835827</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.2494707107543945</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.1867026388645172</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1973370760679245</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.1944761425256729</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.2351345008527728</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.2549241185188293</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.1885611265897751</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1977980583906174</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1986290663480759</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.3709011417687353</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2765301465988159</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2448050081729889</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1979976743459702</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.21290622651577</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.3812761491440137</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.2918218970298767</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.2167375385761261</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.1989102363586426</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.2019680738449097</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.5362514788378677</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.3139591813087463</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.1915746778249741</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.2121131420135498</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.1989940851926804</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.2419564315831356</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2661940455436707</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.1928462982177734</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1956338137388229</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.1891834139823914</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.2320822103368875</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.2712255418300629</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.1928253322839737</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1958259791135788</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.1912468820810318</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.2277678616004429</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.2743630409240723</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2011015713214874</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1955640763044357</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.195721298456192</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.2508039053422734</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.2713188529014587</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.2001564204692841</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1976578086614609</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1953223496675491</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.0657027749454272</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.05684000998735428</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.05449266359210014</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.05287317931652069</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.04843004047870636</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.04762353549818351</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.05804461985826492</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.04579470306634903</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.05261830613017082</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.04443251341581345</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.08836094404802912</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.05480251833796501</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.05128268525004387</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.05185358598828316</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.04582525417208672</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.07391360627502933</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.05583010986447334</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.05238071829080582</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.05237415805459023</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0466180108487606</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.0976865324987414</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.05736790224909782</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.07017809897661209</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.05206198990345001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.05638518929481506</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.05404390073290043</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.05620111152529716</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.04517120495438576</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.05246204137802124</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.04366089403629303</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.05579357521206709</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.05784465372562408</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.04911773651838303</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.05239909887313843</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.04561293497681618</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.1916464309877411</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.2692239582538605</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.1652126610279083</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1948589831590652</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.1573964804410934</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.2039050115340161</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.2621790766716003</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.1684463769197464</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1940856724977493</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1585926413536072</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.3704235474718318</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.2616563737392426</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1693130731582642</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.1965133249759674</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.1612493991851807</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.2378940936915798</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.2651953399181366</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1739531010389328</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1956847608089447</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1620470583438873</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.182550021690424</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.2616392076015472</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.1691316962242126</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.1948806196451187</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1590864807367325</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.1773591222739931</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.2726440727710724</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1620741188526154</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1948875039815903</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.1560559123754501</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.230644651642709</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.2712150812149048</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1850892007350922</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.1954228729009628</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1653405576944351</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.3062834480463395</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.3090502917766571</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.2115059643983841</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.2108086496591568</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.201390340924263</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.3156463915814868</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.3038617968559265</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.207235187292099</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.2103354930877686</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.2003899663686752</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.4456405395675107</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.3060201108455658</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.2520615756511688</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.213049441576004</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.2090572267770767</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.2752491204691782</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.2997291684150696</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.2026392817497253</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2086542844772339</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.1959216594696045</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.2213195549837254</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.294713020324707</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.2055651992559433</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.2078315615653992</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.1984995156526566</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.2132005129518329</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.3026670515537262</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.1940659731626511</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.2108652293682098</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1918447017669678</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
         <v>0.2147159637409347</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B162" t="n">
         <v>0.3081735968589783</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C162" t="n">
         <v>0.1934444159269333</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D162" t="n">
         <v>0.2114574909210205</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E162" t="n">
         <v>0.1911356896162033</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.394033556399138</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.4257635772228241</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.2348245978355408</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.2513765394687653</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.2288613468408585</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.4175921730373215</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4385461807250977</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.2337830513715744</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.251395970582962</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.2291014343500137</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.5234955082768977</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.3649763166904449</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.1889615207910538</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.2425530850887299</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.2079731971025467</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.275167879850968</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.3512295484542847</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.183110699057579</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.2375276833772659</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.197593480348587</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.2599877481875211</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.339595764875412</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.2014793306589127</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.2352459877729416</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.2142347246408463</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.2307870906332264</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.3605852127075195</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.1928282976150513</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.2379715591669083</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.2064910978078842</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.3715889142907183</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.400410532951355</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.2050542831420898</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.2436670213937759</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.2081640064716339</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.7080078124999998</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.6699285507202148</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.4032552540302277</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.4871779382228851</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3608409464359283</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.7341704218832474</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.8390293121337891</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4029253423213959</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.492492139339447</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3643575310707092</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.7771385919767747</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.5270162224769592</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.3801429271697998</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.335265189409256</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3373510539531708</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.5164619983422406</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.4191946983337402</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.3684623539447784</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.2638501822948456</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.357685923576355</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.423947489082294</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.4064542949199677</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.2840926349163055</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.2725024223327637</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3038800060749054</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.4290709949854842</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4035371840000153</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.2915157973766327</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.2883181869983673</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.2787321805953979</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.6517880707310635</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.5706819891929626</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.3468750417232513</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.3521552383899689</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.3226108849048615</v>
       </c>
     </row>
   </sheetData>
